--- a/data/long_razon/P22-Edad-long_razon.xlsx
+++ b/data/long_razon/P22-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-42,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-66,56; -4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,56; 98,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 46,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 32,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,24; 35,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 45,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,75; 29,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 41,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,28; -7,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 31,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,36; -6,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 40,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 71,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 15,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 62,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 51,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 12,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 64,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,08; -4,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 34,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,38; -2,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 35,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-26,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-18,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 50,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 26,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 40,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 33,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 150,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 93,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,7; 18,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 110,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 37,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 79,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-14,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 0,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 28,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 21,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,56; -4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 18,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P22-Edad-long_razon.xlsx
+++ b/data/long_razon/P22-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2920669305617625</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2544365512570322</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1012382140511664</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3890662333377105</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.02594094382006135</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.04188918913250407</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.09432193582235751</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.269881307108088</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1423501878483175</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.09076581918387112</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.09762673039287847</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.3343426704259078</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5615236073918555</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2009270071374614</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.551579981550682</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3714085733672613</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3255377344840003</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3409409197307977</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4321896501689025</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.296856719184127</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3772816720411712</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1903709352383816</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3862297423099275</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1459000697998227</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.4123910478565446</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.137608787060268</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.7105577629374156</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.918820380468014</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5818221397664831</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.4165114019711186</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3986567654448563</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.318021347304986</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.2094900848917248</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4603227627675487</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3152904827614906</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.186129267513088</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.1095398319999579</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2646197789801892</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.4789278943830996</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3510814868742734</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.05168815798373703</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.3348883696375609</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.03894415145118566</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.3550122826412912</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.08118676051616919</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.3017013520484249</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.2713240655948599</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.3529107335559263</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4875483031028639</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5450660471966272</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.7864453474487118</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7277260650119659</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3597035535014268</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5270426871086239</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2823161480730448</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.6017185384070644</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3187879800557502</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4755506859938876</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.5927817947042484</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.5927965020053797</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.3934629762667058</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2086936475879493</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.06788711223432425</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3631589382137705</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3648242028552862</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.03376361433515003</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5556345065287945</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.0536234060948241</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2705805669008069</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>-0.07003879339891408</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.04005244897440796</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.02074014872089256</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1193355650817014</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1208121966065806</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1664396915063157</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1294185812932062</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1344649805960917</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2719318236641746</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.01439020061472065</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1058770888637477</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.1268745919549138</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.2008895398334387</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.08645398637116999</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.009374628155585403</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.3894222370547851</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2423718973068578</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2482137897175645</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.460916383859283</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3765690773056948</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.03987829574269432</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2410024450514651</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.250698183038319</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3297824808277711</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.04880957013775267</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1244646591183715</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2793569297471721</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.4164119637646986</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7047612992197491</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6191220746892356</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4982643893429693</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.1644499346340405</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.6296358466876184</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.3790760792015674</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6593887711513169</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1506875669286954</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.5199577759337562</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.3786636683029412</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.319213907555929</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1554667806186705</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1267731349027519</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.03293699869311447</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.251403747296634</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.2890291397268265</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.05641218262178322</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.2412158794080877</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.004606366906105636</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.2320525759460359</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.08758621118666748</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.1234045461247403</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.139408081380784</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.4430198468620173</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1736994666535823</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2927065857705617</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5215628311479907</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4674541261502716</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2004238423931416</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.4460699170285866</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3254349701937675</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3906805003934696</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1067381032786105</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.3003773812317807</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3869816392646613</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.1816048643036957</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5438580484430605</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4656722802557545</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1846009935964644</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.08840032183419111</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3373593189020375</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.01038002215756675</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.4570759491127615</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.04838785734525764</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.3247174635076518</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.09686232276649434</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.151519568128441</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.278363864105272</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.1238005656443184</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1557626034487779</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.5517097368659161</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.09104397493124157</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.07257503859431534</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.2990610935483201</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.02884179019823306</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.1891201562234285</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.09589049997066627</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.232700981336136</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.2360914724059465</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.5120390107501336</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1805995941576226</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.4495988924253623</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.05768660938181079</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.3307842675814529</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.1920729872323713</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.5200429304091509</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2784035972497407</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3750022338785714</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1123073522053233</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.4193406136232265</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.08076515245469768</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.04166806164088568</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.5079198549017243</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.3204410786050726</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.524869084395521</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.3024062839456808</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.4248136290978841</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.05760521929804823</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.5072824537081291</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.02501580742423098</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.3543354282005253</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.04310041077605845</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.605613261586875</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.2823613162751303</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.2064960320143686</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.06563986176047695</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.3161860325717745</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.1928649408506215</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.3757258643257067</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.2100458478343632</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.5235275044871085</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.01856783341510151</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.3021489270698048</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.1533353248952807</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.4392132199202469</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.1717553800290839</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.2370015362369084</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.4903484827018195</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.6427659190208683</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.4714785158217643</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.06555783858432068</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.5383288730185417</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.7640304523826372</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.2991182735544262</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.01077416193701122</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.4186188771529796</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.6597676390097906</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.458456341762615</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.8751676774512157</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.6691644125953919</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.1892820819872056</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.2297777976073622</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.06721434896526</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.3221745084579505</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.008966435820565459</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.3939729471686892</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.7546305214524482</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.224511244267136</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>-0.1272487967392239</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.1276129777521613</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.08776156109577958</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1160325202310009</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.08860890984860932</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1431040922537322</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.06600345228233152</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.1384024238101023</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.1316523924903196</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.135782672374848</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.0758926256614694</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.1277939513303747</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.110760772031234</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.27313969870619</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.07195643976969195</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.3063643723622338</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2845318062334558</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2545265252121404</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.06593966500813618</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.2534341943550839</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2835060583615368</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2369435433396896</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.02633863877543115</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.233186659312854</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.2426780793660997</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.06464180986710384</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3046774789198252</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.06671735045467306</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1573316324720248</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-0.01713223108660965</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.1992043758991781</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.01555653044138997</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.05224536304130926</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.01700534147228909</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.2085305580904834</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.005511032523526156</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.02341267217888132</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
